--- a/data/metadata/Informe-05-050207-A-TP.xlsx
+++ b/data/metadata/Informe-05-050207-A-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>ue28</t>
   </si>
@@ -58,91 +58,58 @@
     <t>sector</t>
   </si>
   <si>
-    <t>iaest-dimension:ue28</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ue27</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ue25</t>
-  </si>
-  <si>
-    <t>iaest-dimension:sector-descripcion</t>
-  </si>
-  <si>
-    <t>iaest-dimension:aragon</t>
+    <t>iaest-measure:ue28</t>
+  </si>
+  <si>
+    <t>iaest-measure:ue27</t>
+  </si>
+  <si>
+    <t>iaest-measure:ue25</t>
+  </si>
+  <si>
+    <t>iaest-measure:sector-descripcion</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
-    <t>iaest-dimension:orden-nacionalidad</t>
-  </si>
-  <si>
-    <t>iaest-dimension:codsect</t>
+    <t>iaest-measure:orden-nacionalidad</t>
+  </si>
+  <si>
+    <t>iaest-measure:codsect</t>
   </si>
   <si>
     <t>iaest-measure:mes-y-ano</t>
   </si>
   <si>
-    <t>iaest-dimension:ue25-ue27-ue28</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
+    <t>iaest-measure:ue25-ue27-ue28</t>
   </si>
   <si>
     <t>iaest-measure:n-parados</t>
   </si>
   <si>
-    <t>iaest-dimension:sexo</t>
-  </si>
-  <si>
-    <t>iaest-dimension:sector</t>
+    <t>iaest-measure:sexo</t>
+  </si>
+  <si>
+    <t>iaest-measure:sector</t>
+  </si>
+  <si>
+    <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
-    <t>medida</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
     <t>xsd:int</t>
   </si>
   <si>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
     <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>mapping-ue28.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-ue27.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-ue25.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sector-descripcion.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-aragon.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-orden-nacionalidad.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-codsect.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-ue25-ue27-ue28.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sexo.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sector.xlsx</t>
   </si>
 </sst>
 </file>
@@ -284,30 +251,30 @@
         <v>24</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>29</v>
@@ -316,45 +283,45 @@
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>31</v>
@@ -363,63 +330,31 @@
         <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050207-A-TP.xlsx
+++ b/data/metadata/Informe-05-050207-A-TP.xlsx
@@ -11,105 +11,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
-  <si>
-    <t>ue28</t>
-  </si>
-  <si>
-    <t>ue27</t>
-  </si>
-  <si>
-    <t>ue25</t>
-  </si>
-  <si>
-    <t>sector-descripcion</t>
-  </si>
-  <si>
-    <t>aragon</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>orden-nacionalidad</t>
-  </si>
-  <si>
-    <t>sector-codigo</t>
-  </si>
-  <si>
-    <t>codsect</t>
-  </si>
-  <si>
-    <t>mes-y-ano</t>
-  </si>
-  <si>
-    <t>ue25-ue27-ue28</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>n-parados</t>
-  </si>
-  <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>sector</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+  <si>
+    <t>Sector descripción</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Nº parados</t>
+  </si>
+  <si>
+    <t>Orden nacionalidad</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>UE28</t>
+  </si>
+  <si>
+    <t>UE25-UE27-UE28</t>
+  </si>
+  <si>
+    <t>UE27</t>
+  </si>
+  <si>
+    <t>UE25</t>
+  </si>
+  <si>
+    <t>Sector código</t>
+  </si>
+  <si>
+    <t>Codsect</t>
+  </si>
+  <si>
+    <t>Aragón'</t>
+  </si>
+  <si>
+    <t>Provincia código</t>
+  </si>
+  <si>
+    <t>Mes y año</t>
+  </si>
+  <si>
+    <t>iaest-measure:sector-descripcion</t>
+  </si>
+  <si>
+    <t>iaest-measure:sector</t>
+  </si>
+  <si>
+    <t>iaest-measure:n-parados</t>
+  </si>
+  <si>
+    <t>iaest-measure:orden-nacionalidad</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:sexo</t>
   </si>
   <si>
     <t>iaest-measure:ue28</t>
   </si>
   <si>
+    <t>iaest-measure:ue25-ue27-ue28</t>
+  </si>
+  <si>
     <t>iaest-measure:ue27</t>
   </si>
   <si>
     <t>iaest-measure:ue25</t>
   </si>
   <si>
-    <t>iaest-measure:sector-descripcion</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
-    <t>iaest-measure:orden-nacionalidad</t>
-  </si>
-  <si>
     <t>iaest-measure:codsect</t>
   </si>
   <si>
     <t>iaest-measure:mes-y-ano</t>
   </si>
   <si>
-    <t>iaest-measure:ue25-ue27-ue28</t>
-  </si>
-  <si>
-    <t>iaest-measure:n-parados</t>
-  </si>
-  <si>
-    <t>iaest-measure:sexo</t>
-  </si>
-  <si>
-    <t>iaest-measure:sector</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
     <t>xsd:int</t>
   </si>
   <si>
+    <t>URI-Provincia</t>
+  </si>
+  <si>
     <t>URI-Comunidad</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
   </si>
 </sst>
 </file>
@@ -239,25 +242,25 @@
         <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>27</v>
@@ -280,13 +283,13 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>28</v>
@@ -295,16 +298,16 @@
         <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>28</v>
@@ -318,40 +321,40 @@
         <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>30</v>

--- a/data/metadata/Informe-05-050207-A-TP.xlsx
+++ b/data/metadata/Informe-05-050207-A-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Sector descripción</t>
   </si>
@@ -56,6 +56,51 @@
   </si>
   <si>
     <t>Mes y año</t>
+  </si>
+  <si>
+    <t>sector-descripcion</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>n-parados</t>
+  </si>
+  <si>
+    <t>orden-nacionalidad</t>
+  </si>
+  <si>
+    <t>provincia-nombre</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>ue28</t>
+  </si>
+  <si>
+    <t>ue25-ue27-ue28</t>
+  </si>
+  <si>
+    <t>ue27</t>
+  </si>
+  <si>
+    <t>ue25</t>
+  </si>
+  <si>
+    <t>sector-codigo</t>
+  </si>
+  <si>
+    <t>codsect</t>
+  </si>
+  <si>
+    <t>aragon</t>
+  </si>
+  <si>
+    <t>provincia-codigo</t>
+  </si>
+  <si>
+    <t>mes-y-ano</t>
   </si>
   <si>
     <t>iaest-measure:sector-descripcion</t>
@@ -257,107 +302,154 @@
         <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
